--- a/mbs-perturbation/chain/decisionTree/nearmiss/chain-decisionTree-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/decisionTree/nearmiss/chain-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5642857142857144</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.4210526315789474</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9738095238095238</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.6554347826086957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.3647619047619047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>0.3996810207336523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8666666666666666</v>
+        <v>0.6657142857142857</v>
       </c>
     </row>
   </sheetData>
